--- a/Weather-Bigdata-Contest/기상데이터_컬럼.xlsx
+++ b/Weather-Bigdata-Contest/기상데이터_컬럼.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B0113\Desktop\기상청날씨빅데이터콘테스트2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B0113\weather_bd_contest_workspace\Weather-Bigdata-Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE68622A-511C-4F8F-80CB-758BBC74165B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2396A9E-4842-4AC9-B68C-C7159F0EFEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -118,10 +118,6 @@
     <t>DB: 지상 강수 일</t>
   </si>
   <si>
-    <t>사용 컬럼</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>DB: 지상 지중온도 일</t>
   </si>
   <si>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>db_aws_cloud_tim</t>
   </si>
   <si>
@@ -353,10 +345,6 @@
   </si>
   <si>
     <t>DB_SFC_EV_DD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMA, STN_ID, AVG_TCA</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1338,21 +1326,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1362,280 +1349,253 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -1643,25 +1603,23 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1669,12 +1627,11 @@
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="6">
+      <c r="D24" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -1682,12 +1639,11 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6">
+      <c r="D25" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -1695,12 +1651,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="6">
+      <c r="D26" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -1708,12 +1663,11 @@
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="6">
+      <c r="D27" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>24</v>
@@ -1721,24 +1675,22 @@
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="6">
+      <c r="D28" s="6">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6">
+      <c r="D29" s="6">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -1746,25 +1698,23 @@
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="6">
+      <c r="D30" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>9</v>
@@ -1772,12 +1722,11 @@
       <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="6">
+      <c r="D32" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -1785,8 +1734,7 @@
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="6">
+      <c r="D33" s="6">
         <v>131</v>
       </c>
     </row>

--- a/Weather-Bigdata-Contest/기상데이터_컬럼.xlsx
+++ b/Weather-Bigdata-Contest/기상데이터_컬럼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B0113\weather_bd_contest_workspace\Weather-Bigdata-Contest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2396A9E-4842-4AC9-B68C-C7159F0EFEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088601FC-4999-4706-A6C4-93753317361B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
